--- a/src/test/resources/features/Amazon_Searchbar.xlsx
+++ b/src/test/resources/features/Amazon_Searchbar.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\eclipse-workspace\Sprint2\src\test\resources\features\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD1ECE29-6C39-4960-8F62-CD19FBB15C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C8DBC2-2815-4398-ADAB-973D991D41FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{49C722D7-6043-4758-9C7F-57FF3CA9C6AF}"/>
   </bookViews>
@@ -33,12 +33,65 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Tc_Name</t>
+  </si>
+  <si>
+    <t>Verify that user is able to get the relevant product results as per the Search Query</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Mobiles</t>
+  </si>
+  <si>
+    <t>Verify that the User can able get the Product based on the brand name</t>
+  </si>
+  <si>
+    <t>Redmi</t>
+  </si>
+  <si>
+    <t>"Mobiles"</t>
+  </si>
+  <si>
+    <t>"Redmi"</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -61,13 +114,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -380,12 +439,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D750AC-3486-4568-A077-B7BFCF9C34DF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="80.90625" customWidth="1"/>
+    <col min="2" max="2" width="20.26953125" customWidth="1"/>
+    <col min="3" max="3" width="45.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>